--- a/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test.xlsx
+++ b/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Work\Simplus-Grid-Tool\Examples\HybridPowerSystem\HVDC_4Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA0D184-7548-4264-A04F-FC1D6AD137DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C36A15B-9D45-45E6-87C6-955E164BDBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="4860" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="3255" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,10 @@
   </si>
   <si>
     <t>5, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,8 +308,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -375,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -383,6 +388,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -665,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-0.5</v>
+        <v>0.63829999999999998</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -846,19 +852,19 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -884,19 +890,19 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.64370000000000005</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -966,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0.70330000000000004</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1001,19 +1007,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
@@ -1049,30 +1055,8 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>2.5</v>
-      </c>
-      <c r="D4">
-        <v>1.25</v>
-      </c>
-      <c r="E4">
-        <v>0.05</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1081,18 +1065,61 @@
       <c r="B5">
         <v>2001</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>2001</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1100,8 +1127,30 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>90</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>600</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1115,7 +1164,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1288,12 +1337,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <f xml:space="preserve"> 0.01+0.1</f>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <f xml:space="preserve"> 0.5+0.05</f>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1313,11 +1360,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C12" si="0">D11/10</f>
-        <v>0.02</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1337,10 +1383,12 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <f xml:space="preserve"> 0.01+0.1</f>
+        <v>0.11</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <f xml:space="preserve"> 0.5+0.05</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1353,13 +1401,82 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E13" s="1"/>
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E14" s="1"/>
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="1"/>
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1373,7 +1490,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1439,7 +1556,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
